--- a/hv_doanhnghiep.xlsx
+++ b/hv_doanhnghiep.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10716"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167AA433-328B-874C-90F7-26AEDFECB2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hv_doanhnghiep" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="231">
   <si>
     <t>listening</t>
   </si>
@@ -704,13 +710,16 @@
   </si>
   <si>
     <t>newtecons</t>
+  </si>
+  <si>
+    <t>hv_ngayhoc2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,9 +759,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -771,15 +778,124 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{394014E8-4D54-1A4A-AF62-938302003E35}" name="Table1" displayName="Table1" ref="A1:AP37" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:AP37" xr:uid="{394014E8-4D54-1A4A-AF62-938302003E35}">
+    <filterColumn colId="21">
+      <filters>
+        <filter val="1323"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{04F5D52D-7857-3646-A5D7-D40E40D0A5A5}" name="listening"/>
+    <tableColumn id="2" xr3:uid="{E5345EA6-E93E-0048-987D-BDBC5D4913A8}" name="reading"/>
+    <tableColumn id="3" xr3:uid="{5D2180EB-3B41-6D48-A453-452A58CD81C1}" name="writing"/>
+    <tableColumn id="4" xr3:uid="{122EEEF4-4152-104E-9D08-D445FE732168}" name="speaking"/>
+    <tableColumn id="5" xr3:uid="{90E06466-E409-2243-99A3-A203267F1FFF}" name="grammar"/>
+    <tableColumn id="6" xr3:uid="{B17D4ACF-8D70-EB43-8F84-FFE434DCD311}" name="index"/>
+    <tableColumn id="7" xr3:uid="{0F2CBFEB-1819-2041-9A0D-E6F7621BEA12}" name="hv_id"/>
+    <tableColumn id="8" xr3:uid="{576D3F7C-6329-864F-8E1C-5B83BFA65964}" name="user_id"/>
+    <tableColumn id="9" xr3:uid="{89DF0A30-A089-E04D-8681-19AEDDF12C01}" name="hv_fullname_x"/>
+    <tableColumn id="10" xr3:uid="{A5D69AA1-7C34-E848-973C-76A12BB70DDE}" name="hv_email"/>
+    <tableColumn id="11" xr3:uid="{52537431-560F-8F46-A3C1-E93DBE4C5270}" name="hv_phone"/>
+    <tableColumn id="12" xr3:uid="{897AEA9E-F7D3-2146-BE26-BA054BFA125D}" name="hv_coso_x"/>
+    <tableColumn id="13" xr3:uid="{5C7EF1F6-9D76-AC42-8DC6-29678BC6A10F}" name="hv_gender"/>
+    <tableColumn id="14" xr3:uid="{44AEC884-1278-BD42-B5AE-15DC801D24F9}" name="hv_birthday"/>
+    <tableColumn id="15" xr3:uid="{8E683A81-89AC-1C4D-AC3D-567E50391FDF}" name="hv_dauvao"/>
+    <tableColumn id="16" xr3:uid="{91E98292-9A7E-EA45-B5E9-7FE29E4AD90C}" name="dauvao_overall"/>
+    <tableColumn id="17" xr3:uid="{AEBEF6E2-42EE-DA4E-AF23-CA77C625B6F1}" name="hv_muctieu_vt"/>
+    <tableColumn id="18" xr3:uid="{C12B3BD8-2FE9-0948-9CAB-F8FEAF7BCF01}" name="hv_camket_x"/>
+    <tableColumn id="19" xr3:uid="{701C034D-C124-404A-A9AD-FDFD06C36B73}" name="diem_camket"/>
+    <tableColumn id="20" xr3:uid="{126AD822-562D-D843-8DC0-B2A4E94D6905}" name="hv_ngayhoc"/>
+    <tableColumn id="21" xr3:uid="{1B14422A-0274-E345-8215-5FB804BAC1B3}" name="hv_status"/>
+    <tableColumn id="22" xr3:uid="{BD71F730-D43F-E44B-86D9-AFE0226C8CAC}" name="lop_id"/>
+    <tableColumn id="23" xr3:uid="{55C6E383-63B9-1A41-B0D9-2E6646C45416}" name="ketoan_id"/>
+    <tableColumn id="24" xr3:uid="{73F3455B-37F4-AC49-A984-1AAC19711E11}" name="class_period"/>
+    <tableColumn id="25" xr3:uid="{A33DE4C5-557A-4746-BD19-82359ACC00A9}" name="fullname"/>
+    <tableColumn id="26" xr3:uid="{0EBA9F7B-A783-A143-848B-88DFA9ADA181}" name="email_nhac_nho"/>
+    <tableColumn id="27" xr3:uid="{62FF10F6-BBBC-7343-9ECA-FC9992F04F6F}" name="Không làm bài tập"/>
+    <tableColumn id="28" xr3:uid="{689FB16F-9CC8-9F40-BF27-5C3E801DD72D}" name="Làm thiếu bài tập"/>
+    <tableColumn id="29" xr3:uid="{3A427ADA-4856-DF45-8237-5F1490B8A0ED}" name="Làm đủ"/>
+    <tableColumn id="30" xr3:uid="{838B10F0-BE64-AB47-9F4A-DBC918ACD0FF}" name="Làm thiếu và không làm"/>
+    <tableColumn id="31" xr3:uid="{A156355B-B1F5-7C44-A48B-E6C199419B80}" name="Đi học"/>
+    <tableColumn id="32" xr3:uid="{F04AA068-51E4-5C48-92C3-CE19A1A056C2}" name="Nghỉ học"/>
+    <tableColumn id="33" xr3:uid="{1EAB2A08-704B-E94D-AA2D-2E162F873C77}" name="Không học"/>
+    <tableColumn id="34" xr3:uid="{91D01259-58BF-C74A-8EB7-AF5D15EE02AD}" name="Tổng buổi khoá học"/>
+    <tableColumn id="35" xr3:uid="{C218788B-632C-E24F-92F9-9BFAFCCC0CF1}" name="Tỷ lệ nghỉ theo tổng buồi khoá học"/>
+    <tableColumn id="36" xr3:uid="{2BF28D02-9DC5-5D42-8E47-6266C230CE98}" name="Tỉ lệ nghỉ category"/>
+    <tableColumn id="37" xr3:uid="{A8E25749-5443-8F4C-9B6A-ECDDD1BB4F44}" name="hv_ngayhoc2"/>
+    <tableColumn id="38" xr3:uid="{0348123A-EB10-A144-A197-8E0426DFB5DF}" name="thực buổi đăng ký của pđk đang học"/>
+    <tableColumn id="39" xr3:uid="{6B22D82A-84CA-D64E-9C36-E52C7D95CC63}" name="Tổng thực buồi đăng ký của pđk đang học"/>
+    <tableColumn id="40" xr3:uid="{AD8D5EA0-35DB-D349-A4C4-7326EBA6FFDE}" name="Tỷ lệ nghỉ theo thực buổi đăng ký của pđk đang học"/>
+    <tableColumn id="41" xr3:uid="{14EF3EFE-03C5-8C49-9403-AFD88C592FB5}" name="Tỷ lệ nghỉ category thực buổi đk"/>
+    <tableColumn id="42" xr3:uid="{9A0F50F8-779C-0546-8CDE-EFA54423EF23}" name="company"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -817,7 +933,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -851,6 +967,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -885,9 +1002,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1060,14 +1178,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="26" max="26" width="16.1640625" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="30" width="21.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" customWidth="1"/>
+    <col min="33" max="33" width="11.5" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" customWidth="1"/>
+    <col min="35" max="35" width="29.5" customWidth="1"/>
+    <col min="36" max="36" width="17.33203125" customWidth="1"/>
+    <col min="37" max="37" width="13.5" customWidth="1"/>
+    <col min="38" max="38" width="30.33203125" customWidth="1"/>
+    <col min="39" max="39" width="34.33203125" customWidth="1"/>
+    <col min="40" max="40" width="41.83203125" customWidth="1"/>
+    <col min="41" max="41" width="27.6640625" customWidth="1"/>
+    <col min="42" max="42" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>36</v>
@@ -1195,7 +1355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1323,7 +1483,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1451,7 +1611,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1579,7 +1739,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1707,7 +1867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1995,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1963,7 +2123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2091,7 +2251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2219,7 +2379,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2347,7 +2507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2475,7 +2635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2600,7 +2760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2725,7 +2885,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2850,7 +3010,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2975,7 +3135,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3100,7 +3260,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3225,7 +3385,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3350,7 +3510,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3475,7 +3635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3594,7 +3754,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3722,7 +3882,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3850,7 +4010,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3978,7 +4138,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4266,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4234,7 +4394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4362,7 +4522,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -4490,7 +4650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4618,7 +4778,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -4746,7 +4906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4874,7 +5034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4996,7 +5156,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +5281,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5249,7 +5409,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -5377,7 +5537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5499,7 +5659,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5621,7 +5781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5748,5 +5908,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>